--- a/DOWNLOADS/EDITAIS/U_983431_E_900252025_29-09-2025_09h00m/U_983431_E_900252025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_983431_E_900252025_29-09-2025_09h00m/U_983431_E_900252025_29-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="148">
   <si>
     <t>Nº</t>
   </si>
@@ -313,7 +313,7 @@
     <t>COMPUTADOR COMPLETO COM MONITOR LED 19 POLEGADAS, TECLADO CABO 1.8 M E MOUSE USB 1600 DPI; CAIXA DE SOM MÍNIMO 6W; PROCESSADOR COM 6MB DE CACHE, MÍNIMO DE 4 NUCLEOS E 8 THREADS, MÍNIMO 4.4 GHZ; 8 GIGABYTES MEMORIA RAM DDR4 COM DISSIPADOR; 1 TERABYTE DE ARMAZENAMENTO + SSD 480GB, ESTABILIZADOR, WINDOWS 10 OU SUPERIOR E OFFICER PRO 2019 INSTALADOS E LICENCIADOS. FONTE DE ALIMENTAÇÃO 500W PFC: BIVOLT. APRESENTAR CATALOGOS DE TODOS OS COMPONENTES JUNTO COM A PROPOSTA. GARANTIA: 01 ANO.</t>
   </si>
   <si>
-    <t>COMPUTADOR — COMPLETO. ESPECIFICAÇÕES TÉCNICAS: PROCESSADOR COM 6 NÚCLEOS, 12 THREADS, CACHE COM 12 MB, FREQUÊNCIA BASEADA EM PROCESSADOR 2,90 GHZ, FREQUÊNCIA TURBO MÁXIMA 4,30 GHZ. PLACA MÃE LAN 10/100/1000, USB, HDMI E AUDIO E AUDIO. WINDOWS 10 OU SUPERIOR, PLACA DE VÍDEO INTEGRADA: GRÁFICO HD INTEL. CAIXA DE SOM MÍNIMO 6W. MEMÓRIA: CAPACIDADE 16GB; TIPO RAM DDR4. GABINETE: FORMATO COMPACTO MICRO ATX; CONEXÕES: 2 X USB, 2 X ÁUDIO; FONTE: 400W PFC BIVOLT. ACESSÓRIOS: MOUSE ÓPTICO DE CONEXÃO USB CABO MIN 1.8M; TECLADO PADRÃO ABNT2 DE CONEXÃO USB CABO MINIMO DE 18M. ESTABILIZADOR. ARMAZENADO DUPLO: TIPO HD; CAPACIDADE 2 TB. SSD 480 GB ESPECIFICAÇÕES DO MONITOR: TELA LED FULL HD COM 21.5 POLEGADAS, COM INTERFACE DE VÍDEO VGA  BIVOLT AUTOMÁTICO. DOIS CABOS DE ALIMENTAÇÃO PARA LIGAR A CPU E O MONITOR, APRESENTAR CATALOGO DE TODOS OS COMPONENTES JUNTO COM A PROPOSTA GARANTIA: 01 ANO.</t>
+    <t>COMPUTADOR COMPLETO. ESPECIFICAÇÕES TÉCNICAS: PROCESSADOR COM 6 NÚCLEOS, 12 THREADS, CACHE COM 12 MB, FREQUÊNCIA BASEADA EM PROCESSADOR 2,90 GHZ, FREQUÊNCIA TURBO MÁXIMA 4,30 GHZ. PLACA MÃE LAN 10/100/1000, USB, HDMI E AUDIO E AUDIO. WINDOWS 10 OU SUPERIOR, PLACA DE VÍDEO INTEGRADA: GRÁFICO HD INTEL. CAIXA DE SOM MÍNIMO 6W. MEMÓRIA: CAPACIDADE 16GB; TIPO RAM DDR4. GABINETE: FORMATO COMPACTO MICRO ATX; CONEXÕES: 2 X USB, 2 X ÁUDIO; FONTE: 400W PFC BIVOLT. ACESSÓRIOS: MOUSE ÓPTICO DE CONEXÃO USB CABO MIN 1.8M; TECLADO PADRÃO ABNT2 DE CONEXÃO USB CABO MINIMO DE 1.8M. ESTABILIZADOR. ARMAZENADO DUPLO: TIPO HD; CAPACIDADE 2 TB. SSD 480 GB ESPECIFICAÇÕES DO MONITOR: TELA LED FULL HD COM 21.5 POLEGADAS, COM INTERFACE DE VÍDEO VGA BIVOLT AUTOMÁTICO. DOIS CABOS DE ALIMENTAÇÃO PARA LIGAR A CPU E O MONITOR, APRESENTAR CATALOGO DE TODOS OS COMPONENTES JUNTO COM A PROPOSTA GARANTIA: 01 ANO.</t>
   </si>
   <si>
     <t>NOTEBOOK COM PROCESSADOR VELOCIDADE DE FREQUÊNCIA 4.10 GHZ OU SUPERIOR, 6MB CACHE, 4 THREADS. 8 GB MEMORIA DDR4 MINIMO 2666 MHZ, EXPANSIVEL ATÉ 20GB TELA MIN 15.6 LED FULL HD 1920 X 1080, TEMPO DE RESPOSTAS 8-11MS, BRILHO 220NITS, CONTRASTE 400:1, SSD MIN 256GB SSD PCI E 3.0, DOIS ALTO FALANTES ESTEREO, MICROFONE DUPLO, WEBCAM HD 1280 X 720, REDE DUAL BAND, COM TECNOLOGIA UM-MIMO 2X2, BLUETOOTH 5.1, TECLADO NUMERICO IDEPENDENTE, TOUCH PAD, MULT GESTUAL COM DOIS BOTÕES. COM WINDOWS 10 OU SUPERIOR. APRESENTAR CATALOGO.</t>
@@ -325,16 +325,16 @@
     <t>MULTIFUNCIONAL TANQUE DE TINTA (IMPRIME, DIGITALIZA E COPIA), FUNÇÕES VELOCIDADE DE IMPRESSÃO 33 PPM PRETO, 15PPM COLORIDO; RESOLUÇÃO 5760X1440 DPI; 4.500 PÁGINAS EM PRETO E 7.500 PÁGINAS EM COLORIDO; CONEXÃO USB E WIRELESS. FONTE DE ALIMENTAÇÃO: BIVOLT. GARANTIA: 01 ANO. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
-    <t>IMPRESSORA TIPO: MULTIFUNCIONAL A CORES PARA FORMATOS A4; TECNOLOGIA: LASER; VELOCIDADE DE PRODUÇÃO: ATÉ 21 PÁGINAS POR MINUTO EM A4 A CORES E A PRETO; RESOLUÇÃO: 1.200 X 1.200 A VELOCIDADE REDUZIDA; TECNOLOGIA MULTIBIT PARA QUALIDADE DE 9,600 X 600 DPI IMPRESSÃO; 600 X 600 DPI, 265 ESCALAS DE CINZENTO POR COR (SCAN/CÓPIA); TEMPO DE AQUECIMENTO: 32 SEGUNDOS OU MENOS; TEMPO PARA PRIMEIRA IMPRESSÃO: 11/125 SEGUNDOS OU  MENOS, PRETO/COR; TEMPO PARA PRIMEIRA CÓPIA: 10/12 SEGUNDOS OU MENOS, PRETO/COR; DIMENSÕES: 417 X 429 X 495 MM. FONTE DE ALIMENTAÇÃO: BIVOLT, APRESENTAR CATALOGO, GARANTIA: 01 ANO.</t>
-  </si>
-  <si>
-    <t>IMPRESSORA MULTIFUNCIONAL LASER, 40PPM OU SUPERIOR, RESOLUÇÃO 1200 X 1200, MEMORIA 512MB OU SUPERIOR, PROCESSADOR MINIMO 1.2GH7, CONEXÃO USB 2.0 ETHERNET E WI FI, CICLO MENSAL MINIMO  100.000 FOLHAS, FRENTE E VERSO AUTOMATICO, BANDEJA PARA NO MINIMO 250 FOLHAS, BANDEJA MULTIUSO 60 FOLHAS. BANDEJA DE SAÍDA 150 FOLHAS, DIGITALIZAÇÃO ADF/MESA. FONTE DE ALIMENTAÇÃO: BIVOLT, APRESENTAR CATALOGO, GARANTIA: 01 ANO.</t>
+    <t>IMPRESSORA TIPO: MULTIFUNCIONAL A CORES PARA FORMATOS A4; TECNOLOGIA: LASER; VELOCIDADE DE PRODUÇÃO: ATÉ 21 PÁGINAS POR MINUTO EM A4 A CORES E A PRETO; RESOLUÇÃO: 1.200 X 1.200 A VELOCIDADE REDUZIDA; TECNOLOGIA MULTIBIT PARA QUALIDADE DE 9,600 X 600 DPI IMPRESSÃO; 600 X 600 DPI, 265 ESCALAS DE CINZENTO POR COR (SCAN/CÓPIA); TEMPO DE AQUECIMENTO: 32 SEGUNDOS OU MENOS; TEMPO PARA PRIMEIRA IMPRESSÃO: 11/12,5 SEGUNDOS OU MENOS, PRETO/COR; TEMPO PARA PRIMEIRA CÓPIA: 10/12 SEGUNDOS OU MENOS, PRETO/COR; DIMENSÕES: 417 X 429 X 495 MM. FONTE DE ALIMENTAÇÃO: BIVOLT, APRESENTAR CATALOGO, GARANTIA: 01 ANO.</t>
+  </si>
+  <si>
+    <t>IMPRESSORA MULTIFUNCIONAL LASER, 40PPM OU SUPERIOR, RESOLUÇÃO 1200 X 1200, MEMORIA 512MB OU SUPERIOR, PROCESSADOR MINIMO 1.2GHZ, CONEXÃO USB 2.0 ETHERNET E WI FI, CICLO MENSAL MINIMO 100.000 FOLHAS, FRENTE E VERSO AUTOMATICO, BANDEJA PARA NO MINIMO 250 FOLHAS, BANDEJA MULTIUSO 60 FOLHAS. BANDEJA DE SAÍDA 150 FOLHAS, DIGITALIZAÇÃO ADF/MESA. FONTE DE ALIMENTAÇÃO: BIVOLT, APRESENTAR CATALOGO, GARANTIA: 01 ANO.</t>
   </si>
   <si>
     <t>IMPRESSORA MULTIFUNCIONAL MONOCROMÁTICA A4 (ATÉ OFÍCIO), VELOCIDADE 42 PPM MONOCROMÁTICO, PAINEL DE CONTROLE COM TECLAS E VISOR LCD DE 5 LINHAS, HORA DE AQUECIMENTO 20 SEG. OU MENOS, 600 X 600 DPI, 1.200 X 1.200 DPI, VELOCIDADE DE VARREDURA: ATÉ 40 IPM SIMPLEX / 32 IPM DUPLEX. HORA DA PRIMEIRA IMPRESSÃO: 6.4 SEG. HORA DE AQUECIMENTO: 20 SEG. OU MENOS. GAVETA PADRÃO/OPCIONAIS: 250 FOLHAS, BANDEJA MPT 100 FOLHAS. PROCESSADOR DE DOCUMENTOS: ALIMENTADOR DE ORIGINAIS PADRÃO FRENTE E VERSO COM PASSAGEM ÚNICA: 50 ORIG. MÁX. CAPACIDADE DE PRODUÇÃO: SAÍDA DE IMPRESSÃO PADRÃO DE 150 FOLHAS. FONTE DE ALIMENTAÇÃO: BIVOLT, APRESENTAR CATALOGO, GARANTIA: 01 ANO.</t>
   </si>
   <si>
-    <t>NOBREAK - POTENCIA: 1200 VA = 600WATTS; FORMA DE ONDA: SENOIDAL POR  APROXIMAÇÃO; TOPOLOGIA: NOBREAK (UPS) INTERATIVO COM REGULAÇÃO ON-LINE; TENSÃO ENTRADA: BIVOLT AUTOMÁTICO 115/127/220V; TENSÃO SAÍDA: 115V-; POSSUI ESTABILIZADOR INTERNO: SIM; FORMATO DO NOBREAK: TORRE NÚMERO DE TOMADAS: 6 TOMADAS (PADRÃO  NBRI4136; TEMPO  DE AUTONOMIA: 55 MIN. APRESENTAR CATÁLOGO.</t>
+    <t>NOBREAK - POTENCIA: 1200 VA = 600WATTS; FORMA DE ONDA: SENOIDAL POR APROXIMAÇÃO; TOPOLOGIA: NOBREAK (UPS) INTERATIVO COM REGULAÇÃO ON-LINE; TENSÃO ENTRADA: BIVOLT AUTOMÁTICO 115/127/220V; TENSÃO SAÍDA: 115V~; POSSUI ESTABILIZADOR INTERNO: SIM; FORMATO DO NOBREAK: TORRE NÚMERO DE TOMADAS: 6 TOMADAS (PADRÃO NBR14136); TEMPO DE AUTONOMIA: 55 MIN. APRESENTAR CATÁLOGO.</t>
   </si>
   <si>
     <t>ESTABILIZADOR 500VA BIVOLT AUTOMÁTICO 220/110; CERTIFICAÇÃO ANATEL, APRESENTAR CATALOGO.</t>
@@ -343,7 +343,7 @@
     <t>ESTABILIZADOR 1000VA BIVOLT AUTOMATICO 220/110; CERTIFICAÇÃO ANATEL, APRESENTAR CATALOGO.</t>
   </si>
   <si>
-    <t>TRANSFORMADOR 1500 VA 220/110, APRESENTAR CATALOGO</t>
+    <t>TRANSFORMADOR 1500 VA 220/110, APRESENTAR CATALOGO.</t>
   </si>
   <si>
     <t>BATERIA DE LÍTIO CR2032 PARA PLACA MÃE. APRESENTAR CATÁLOGO</t>
@@ -358,13 +358,13 @@
     <t>FONTE ATX 500W REAL BRONZE PFC. BIVOLT, COM CABO, NA COR PRETA. APRESENTAR CATÁLOGO.</t>
   </si>
   <si>
-    <t>TECLADO USB 107, TECLADO MULTIMÍDIA, USB, CABO MÍNIMO 1.8 M, PADRÃO ABNT 2. SILENCIOSO, NA COR PRETA — COMPATÍVEL COM  WINDOWS. APRESENTAR CATÁLOGO.</t>
+    <t>TECLADO USB 107, TECLADO MULTIMÍDIA, USB, CABO MÍNIMO 1.8 M, PADRÃO ABNT 2. SILENCIOSO, NA COR PRETA. COMPATÍVEL COM WINDOWS. APRESENTAR CATÁLOGO.</t>
   </si>
   <si>
     <t>MOUSE USB 2400 DPI, ÓTICO, CONEXÃO USB COM FIO. PRETO. COMPATÍVEL COM WINDOWS. APRESENTAR CATÁLOGO.</t>
   </si>
   <si>
-    <t>KIT TECLADO E MOUSE CONEXÃO SEM FIO, SLIM MULTI CONEXÃO. APRESENTAR CATÁLOGO</t>
+    <t>KIT TECLADO E MOUSE CONEXÃO SEM FIO, SLIM MULTI CONEXÃO.</t>
   </si>
   <si>
     <t>SSD 480 GB, COMPATÍVEL COM SATA 2.0 E SATA 3.0, LEITURA APROXIMADA 535MB/S, GRAVAÇÃO 445MB/S. INTERNO, FATOR DE FORMA: 2,5 POLEGADAS. PARA NOTEBOOKS E COMPUTADORES. PARA NOTEBOOKS E COMPUTADORES. APRESENTAR CATÁLOGO,</t>
@@ -379,358 +379,76 @@
     <t>HD EXTERNO 2TB, PORTÁTIL, USB 3.0. VELOCIDADE DE ROTAÇÃO APROXIMADA: 5400 RPM. NA COR PRETA. COM CABO USB INCLUSO. COMPATÍVEL COM WINDOWS, MAC, LINUX. GARANTIA DE 12 MESES. APRESENTAR CATÁLOGO.</t>
   </si>
   <si>
-    <t>ROTEADOR WIRELESS 3 ANTENAS - TECNOLOGIA: PADRÃO IEEE 8021l BGN OU  SUPERIOR. FREQUÊNCIA: 2.4 GHZ (MÍNIMO), PODENDO INCLUIR 5 GHZ (DUAL BAND OPCIONAL). VELOCIDADE: ATÉ 300 MBPS (OU SUPERIOR) ANTENAS: 3 ANTENAS EXTERNAS FIXAS, COM GANHO MÍNIMO DE 5 DBI CADA. PORTAS: MÍNIMO DE 4 PORTAS LAN 10/100 MBPS E 1 PORTA WAN 10/100 MBPS. FUNÇÕES: DHCP, NAT, FIREWALL, —WPS, QOS, PORT  FORWARDING. SEGURANÇA: WPA, WPA2 OU SUPERIOR. ALCANCE: ADEQUADO PARA AMBIENTES RESIDENCIAIS OU PEQUENOS ESCRITÓRIOS. ALIMENTAÇÃO: FONTE BIVOLT AUTOMÁTICA. GARANTIA MÍNIMA: 12 MESES. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>ROTEADOR WIRELESS 6 ANTENAS - TECNOLOGIA: ROTEADOR WIRELESS COMPATÍVEL COM OS PADRÕES IEEE 802.11 A/B/G(N/AC OU SUPERIOR. FREQUÊNCIA: DUAL BAND (2.4 GHZ E 5 GHZ). VELOCIDADE: MÍNIMO DE 867 MBPS NA FREQUÊNCIA 5 GHZ E 300 MBPS NA FREQUÊNCIA 2.4 GHZ (OU SUPERIOR). ANTENAS: 6 ANTENAS EXTERNAS DE ALTO GANHO (MÍNIMO 5 DBI CADA), COM TECNOLOGIA MIMO. PORTAS: NO MÍNIMO 4 PORTAS LAN 10/100/1000 MBPS E | PORTA WAN 10/100/1000 MBPS. RECURSOS: DHCP, NAT, FIREWALL, QOS, WPS, PORT  FORWARDING, MU-MIMO, BEAMFORMING (OU EQUIVALENTE). SEGURANÇA: WPA, WPA2, WPA3 (OU SUPERIOR). GERENCIAMENTO: INTERFACE WEB E APLICATIVO PARA CONFIGURAÇÃO VIA SMARTPHONE. ALCANCE: COBERTURA PARA RESIDÊNCIAS OU ESCRITÓRIOS DE MÉDIO PORTE. ALIMENTAÇÃO: FONTE BIVOLT AUTOMÁTICA. GARANTIA MÍNIMA: 12 MESES. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA HP LASER JET MFP 1102, M1132 MFP. REFERÊNCIA: CE285A 285A CE285AB. RENDIMENTO: EM MÉDIA 1.600 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA  IMPRESSÃO. COR  PRETO. APRESENTAR CATÁLOGO</t>
+    <t>ROTEADOR WIRELESS 3 ANTENAS - TECNOLOGIA: PADRÃO IEEE 802.11 B/G/N OU SUPERIOR. FREQUÊNCIA: 2.4 GHZ (MÍNIMO), PODENDO INCLUIR 5 GHZ (DUAL BAND OPCIONAL). VELOCIDADE: ATÉ 300 MBPS (OU SUPERIOR). ANTENAS: 3 ANTENAS EXTERNAS FIXAS, COM GANHO MÍNIMO DE 5 DBI CADA. PORTAS: MÍNIMO DE 4 PORTAS LAN 10/100 MBPS E 1 PORTA WAN 10/100 MBPS. FUNÇÕES: DHCP, NAT, FIREWALL, WPS, QOS, PORT FORWARDING. SEGURANÇA: WPA, WPA2 OU SUPERIOR. ALCANCE: ADEQUADO PARA AMBIENTES RESIDENCIAIS OU PEQUENOS ESCRITÓRIOS. ALIMENTAÇÃO: FONTE BIVOLT AUTOMÁTICA. GARANTIA MÍNIMA: 12 MESES. APRESENTAR CATÁLOGO.</t>
+  </si>
+  <si>
+    <t>ROTEADOR WIRELESS 6 ANTENAS - TECNOLOGIA: ROTEADOR WIRELESS COMPATÍVEL COM OS PADRÕES IEEE 802.11 A/B/G/N/AC OU SUPERIOR. FREQUÊNCIA: DUAL BAND (2.4 GHZ E 5 GHZ). VELOCIDADE: MÍNIMO DE 867 MBPS NA FREQUÊNCIA 5 GHZ E 300 MBPS NA FREQUÊNCIA 2.4 GHZ (OU SUPERIOR). ANTENAS: 6 ANTENAS EXTERNAS DE ALTO GANHO (MÍNIMO 5 DBI CADA), COM TECNOLOGIA MIMO. PORTAS: NO MÍNIMO 4 PORTAS LAN 10/100/1000 MBPS E 1 PORTA WAN 10/100/1000 MBPS. RECURSOS: DHCP, NAT, FIREWALL, QOS, WPS, PORT FORWARDING, MU-MIMO, BEAMFORMING (OU EQUIVALENTE). SEGURANÇA: WPA, WPA2, WPA3 (OU SUPERIOR). GERENCIAMENTO: INTERFACE WEB E APLICATIVO PARA CONFIGURAÇÃO VIA SMARTPHONE. ALCANCE: COBERTURA PARA RESIDÊNCIAS OU ESCRITÓRIOS DE MÉDIO PORTE. ALIMENTAÇÃO: FONTE BIVOLT AUTOMÁTICA. GARANTIA MÍNIMA: 12 MESES. APRESENTAR CATÁLOGO.</t>
+  </si>
+  <si>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA HP LASER JET MFP 1102, M1132 MFP. REFERÊNCIA: CE285A 285A CE285AB. RENDIMENTO: EM MÉDIA 1.600 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
     <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA HP MFP 432 FDN. REFERÊNCIA: W 1330 X. RENDIMENTO: EM MÉDIA 15.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA MULTIFUNCIONAL HP MI125A. REFERÊNCIA: 283 A. RENDIMENTO: EM MÉDIA 2.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA BROTHER DCPL5502DN. REFERÊNCIA: TN 3470/3472. RENDIMENTO: EM MÉDIA 12.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA SAMSUNG PRO XPRESS M 4070. REFERÊNCIA: MLT - D203 U (M332). RENDIMENTO: EM MÉDIA 15.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE DE IMPRESSÃO. GARANTIA DE | ANO PARA DEFEITOS DE FABRICAÇÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA SAMSUNG M2070. REFERÊNCIA: DI111/MLT-DUIL. RENDIMENTO: EM MÉDIA 1.800 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA MULTIFUNCIONAL HP M125A. REFERÊNCIA: 283 A. RENDIMENTO: EM MÉDIA 2.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA BROTHER DCP-L5502DN. REFERÊNCIA: TN 3470/3472. RENDIMENTO: EM MÉDIA 12.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA SAMSUNG PRO XPRESS M 4070. REFERÊNCIA: MLT - D203 U (M332). RENDIMENTO: EM MÉDIA 15.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE DE IMPRESSÃO. GARANTIA DE 1 ANO PARA DEFEITOS DE FABRICAÇÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA SAMSUNG M2070. REFERÊNCIA: D111 / MLT-D111L. RENDIMENTO: EM MÉDIA 1.800 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
     <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA SAMSUNG ML- 2851 ND. REFERÊNCIA: D 2850, ML 2851 ND. RENDIMENTO: EM MÉDIA 5.000 IMPRESSÕES EM PAPEL A4. TONER COM ÓTIMA QUALIDADE NA IMPRESSÃO. COR PRETO. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA HP LASERIET . M-I5SA, MISW, M28A, M28SW. REFERÊNCIA: CF248A. RENDIMENTO: EM MÉDIA 1.000 IMPRESSÕES EM PAPEL A4. APRESENTAR CATÁLOGO</t>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA HP LASERJET M-15A, M-15W, M-28A, M-28W. REFERÊNCIA: CF248A. RENDIMENTO: EM MÉDIA 1.000 IMPRESSÕES EM PAPEL A4. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
     <t>TONER 100% NOVO COMPATÍVEL COM HP LASERJET: 107A, 107W, MFP-M135A, MFP-M135W. REFERÊNCIA: 105A (W1105), COM CHIP. RENDIMENTO MÉDIO: 1.000 IMPRESSÕES EM PAPEL A4. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORAS MULTIFUNCIONAIS HP. REFERÊNCIA: 435A / 436A / 285A / 278A. RENDIMENTO MÉDIO: 1.800 IMPRESSÕES EM PAPEL A4. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA KYOCERA ECOSYS M2040DN/L. REFERÊNCIA: TK1175. RENDIMENTO MÉDIO: 12.000 IMPRESSÕES EM PAPEL A4. COR PRETA. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>REFIL DE TINTA PARA — IMPRESSORAS MULTIFUNCIONAIS EPSON ECO TANK L 3250, L 3150, L 380. KIT COMPOSTO POR 04 FRASCOS DE A X L X C: 17 X 4 X4 CM, DE 65ML (CADA COR), MAGENTA, CIANO, AMARELO E PRETO. RENDIMENTO: MÉDIA DE 4.500 PÁGINAS (EM PRETO) E DE 7.500 PÁGINAS (COLORIDAS). TECNOLOGIA DE IMPRESSÃO: JATO DE TINTA. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L3150 / L3110 / L3210/L3250/LS5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 4.500 PÁGINAS. COR: PRETA. PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L3150 / L3110 / L3210/L3250/LS5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 7.500 PÁGINAS. COR: VERMELHA (MAGENTA). PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L1110 / L3150 / L3110 / L3210 / L3250 / L5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 7.500 PÁGINAS. COR: AMARELA. PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L3150 / L3110 / L3210/L3250/LS5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 7.500 PÁGINAS. COR: AZUL (CIANO). PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>TONER PARA IMPRESSORA COMPATÍVEL COM O MODELO: PANTUM M7105DW, REFERÊNCIA: TL-425U, 11 MIL PÁGINAS - NA COR PRETA, TONNER COM ÓTIMA QUALIDADE DE IMPRESSÃO. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>TONER PARA IMPRESSORA COMPATÍVEL COM MODELO: PANTUM BM5100, REFERÊNCIA: TL-5120X, 15 MIL PÁGINAS — NA COR PRETA. TONNER COM ÓTIMA QUALIDADE DE IMPRESSÃO. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>UNIDADE DE CILINDRO COMPATÍVEL COM IMPRESSORA, PANTUM M7105DW, REFERÊNCIA: DL- 425X, 25 MIL PÁGINAS. APRESENTAR CATÁLOGO</t>
-  </si>
-  <si>
-    <t>UNIDADE DE CILINDRO COMPATÍVEL COM IMPRESSORA, PANTUM BMS5100, REFERÊNCIA: DL- 5120, 30 MIL PÁGINAS. APRESENTAR CATÁLOGO</t>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORAS MULTIFUNCIONAIS HP. REFERÊNCIA: 435A / 436A / 285A / 278A. RENDIMENTO MÉDIO: 1.800 IMPRESSÕES EM PAPEL A4. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>TONER 100% NOVO COMPATÍVEL COM IMPRESSORA KYOCERA ECOSYS M2040DN/L. REFERÊNCIA: TK1175. RENDIMENTO MÉDIO: 12.000 IMPRESSÕES EM PAPEL A4. COR PRETA. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>REFIL DE TINTA PARA IMPRESSORAS MULTIFUNCIONAIS EPSON ECO TANK L 3250, L 3150, L 380. KIT COMPOSTO POR 04 FRASCOS DE A X L X C: 17 X 4 X 4 CM, DE 65ML (CADA COR), MAGENTA, CIANO, AMARELO E PRETO. RENDIMENTO: MÉDIA DE 4.500 PÁGINAS (EM PRETO) E DE 7.500 PÁGINAS (COLORIDAS). TECNOLOGIA DE IMPRESSÃO: JATO DE TINTA. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L3150 / L3110 / L3210 / L3250 / L5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 4.500 PÁGINAS. COR: PRETA. PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L3150 / L3110 / L3210 / L3250 / L5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 7.500 PÁGINAS. COR: VERMELHA (MAGENTA). PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO.</t>
+  </si>
+  <si>
+    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L1110 / L3150 / L3110 / L3210 / L3250 / L5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 7.500 PÁGINAS. COR: AMARELA. PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>REFIL DE TINTA PARA IMPRESSORA EPSON ECO TANK. COMPATIBILIDADE: L3150 / L3110 / L3210 / L3250 / L5190. REFERÊNCIA: 544. CONTEÚDO: 65 ML. RENDIMENTO: MÉDIA DE 7.500 PÁGINAS. COR: AZUL (CIANO). PRONTO PARA USO COM BICO APLICADOR. APRESENTAR CATÁLOGO.</t>
+  </si>
+  <si>
+    <t>TONER PARA IMPRESSORA COMPATÍVEL COM O MODELO: PANTUM M7105DW, REFERÊNCIA: TL-425U, 11 MIL PÁGINAS – NA COR PRETA, TONNER COM ÓTIMA QUALIDADE DE IMPRESSÃO. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>TONER PARA IMPRESSORA COMPATÍVEL COM MODELO: PANTUM BM5100, REFERÊNCIA: TL-5120X, 15 MIL PÁGINAS – NA COR PRETA. TONNER COM ÓTIMA QUALIDADE DE IMPRESSÃO. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>UNIDADE DE CILINDRO COMPATÍVEL COM IMPRESSORA, PANTUM M7105DW, REFERÊNCIA: DL-425X, 25 MIL PÁGINAS. APRESENTAR CATÁLOGO</t>
+  </si>
+  <si>
+    <t>UNIDADE DE CILINDRO COMPATÍVEL COM IMPRESSORA, PANTUM BM5100, REFERÊNCIA: DL-5120, 30 MIL PÁGINAS. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
     <t>UNIDADE DE CILINDRO PARA IMPRESSORA, COMPATÍVEL COM MODELO: IMPRESSORA HP LASERJET MFP-M432FDN, REFERÊNCIA UNIDADE DO CILINDRO: HP 332A W1332A, RENDE APROXIMADAMENTE 30.000 PÁGINAS COM 5% DE COBERTURA NO PADRÃO ISO. UNIDADE DE CILINDRO COM ÓTIMA QUALIDADE. APRESENTAR CATÁLOGO</t>
   </si>
   <si>
     <t>UNIDADE DE CILINDRO PARA IMPRESSORA, COMPATÍVEL COM MODELO: BROTHER DCP-L5502DN, REFERÊNCIA UNIDADE DO CILINDRO: DR3440, RENDE APROXIMADAMENTE 30.000 PÁGINAS COM 5% DE COBERTURA NO PADRÃO ISO. UNIDADE DE CILINDRO COM ÓTIMA QUALIDADE. APRESENTAR CATÁLOGO.</t>
-  </si>
-  <si>
-    <t>4108,73</t>
-  </si>
-  <si>
-    <t>5829,00</t>
-  </si>
-  <si>
-    <t>3831,67</t>
-  </si>
-  <si>
-    <t>5679,31</t>
-  </si>
-  <si>
-    <t>1297,90</t>
-  </si>
-  <si>
-    <t>4329,93</t>
-  </si>
-  <si>
-    <t>2952,89</t>
-  </si>
-  <si>
-    <t>3063,17</t>
-  </si>
-  <si>
-    <t>726,75</t>
-  </si>
-  <si>
-    <t>178,70</t>
-  </si>
-  <si>
-    <t>299,33</t>
-  </si>
-  <si>
-    <t>126,46</t>
-  </si>
-  <si>
-    <t>3,00</t>
-  </si>
-  <si>
-    <t>20,25</t>
-  </si>
-  <si>
-    <t>26,66</t>
-  </si>
-  <si>
-    <t>346,67</t>
-  </si>
-  <si>
-    <t>47,97</t>
-  </si>
-  <si>
-    <t>35,02</t>
-  </si>
-  <si>
-    <t>155,67</t>
-  </si>
-  <si>
-    <t>366,97</t>
-  </si>
-  <si>
-    <t>186,25</t>
-  </si>
-  <si>
-    <t>268,28</t>
-  </si>
-  <si>
-    <t>617,16</t>
-  </si>
-  <si>
-    <t>237,32</t>
-  </si>
-  <si>
-    <t>594,50</t>
-  </si>
-  <si>
-    <t>65,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>60,67</t>
-  </si>
-  <si>
-    <t>110,41</t>
-  </si>
-  <si>
-    <t>122,38</t>
-  </si>
-  <si>
-    <t>68,30</t>
-  </si>
-  <si>
-    <t>61,19</t>
-  </si>
-  <si>
-    <t>64,67</t>
-  </si>
-  <si>
-    <t>68,47</t>
-  </si>
-  <si>
-    <t>58,67</t>
-  </si>
-  <si>
-    <t>119,45</t>
-  </si>
-  <si>
-    <t>214,10</t>
-  </si>
-  <si>
-    <t>55,80</t>
-  </si>
-  <si>
-    <t>57,44</t>
-  </si>
-  <si>
-    <t>56,55</t>
-  </si>
-  <si>
-    <t>56,41</t>
-  </si>
-  <si>
-    <t>91,95</t>
-  </si>
-  <si>
-    <t>108,20</t>
-  </si>
-  <si>
-    <t>197,33</t>
-  </si>
-  <si>
-    <t>213,17</t>
-  </si>
-  <si>
-    <t>102,31</t>
-  </si>
-  <si>
-    <t>103,66</t>
-  </si>
-  <si>
-    <t>123261,90</t>
-  </si>
-  <si>
-    <t>174870,00</t>
-  </si>
-  <si>
-    <t>76633,40</t>
-  </si>
-  <si>
-    <t>85189,65</t>
-  </si>
-  <si>
-    <t>32447,50</t>
-  </si>
-  <si>
-    <t>73608,81</t>
-  </si>
-  <si>
-    <t>44293,35</t>
-  </si>
-  <si>
-    <t>15315,85</t>
-  </si>
-  <si>
-    <t>29070,00</t>
-  </si>
-  <si>
-    <t>6254,50</t>
-  </si>
-  <si>
-    <t>10476,55</t>
-  </si>
-  <si>
-    <t>2529,20</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>607,50</t>
-  </si>
-  <si>
-    <t>1066,40</t>
-  </si>
-  <si>
-    <t>12133,45</t>
-  </si>
-  <si>
-    <t>2878,20</t>
-  </si>
-  <si>
-    <t>2451,40</t>
-  </si>
-  <si>
-    <t>7783,50</t>
-  </si>
-  <si>
-    <t>12843,95</t>
-  </si>
-  <si>
-    <t>4656,25</t>
-  </si>
-  <si>
-    <t>9389,80</t>
-  </si>
-  <si>
-    <t>21600,60</t>
-  </si>
-  <si>
-    <t>3559,80</t>
-  </si>
-  <si>
-    <t>8917,50</t>
-  </si>
-  <si>
-    <t>6500,00</t>
-  </si>
-  <si>
-    <t>25600,00</t>
-  </si>
-  <si>
-    <t>6067,00</t>
-  </si>
-  <si>
-    <t>11041,00</t>
-  </si>
-  <si>
-    <t>12238,00</t>
-  </si>
-  <si>
-    <t>10245,00</t>
-  </si>
-  <si>
-    <t>1835,70</t>
-  </si>
-  <si>
-    <t>9700,50</t>
-  </si>
-  <si>
-    <t>13694,00</t>
-  </si>
-  <si>
-    <t>5867,00</t>
-  </si>
-  <si>
-    <t>11945,00</t>
-  </si>
-  <si>
-    <t>42820,00</t>
-  </si>
-  <si>
-    <t>8370,00</t>
-  </si>
-  <si>
-    <t>5744,00</t>
-  </si>
-  <si>
-    <t>5655,00</t>
-  </si>
-  <si>
-    <t>5641,00</t>
-  </si>
-  <si>
-    <t>9195,00</t>
-  </si>
-  <si>
-    <t>10820,00</t>
-  </si>
-  <si>
-    <t>9866,50</t>
-  </si>
-  <si>
-    <t>10658,50</t>
-  </si>
-  <si>
-    <t>4092,40</t>
-  </si>
-  <si>
-    <t>2591,50</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1145,20 +863,20 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
+      <c r="E2">
+        <v>4108.73</v>
+      </c>
+      <c r="F2">
+        <v>123261.9</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1174,20 +892,20 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
+      <c r="E3">
+        <v>5829</v>
+      </c>
+      <c r="F3">
+        <v>174870</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1203,20 +921,20 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>194</v>
+      <c r="E4">
+        <v>3831.67</v>
+      </c>
+      <c r="F4">
+        <v>76633.39999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1232,20 +950,20 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" t="s">
-        <v>195</v>
+      <c r="E5">
+        <v>5679.31</v>
+      </c>
+      <c r="F5">
+        <v>85189.65000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1261,20 +979,20 @@
       <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>196</v>
+      <c r="E6">
+        <v>1297.9</v>
+      </c>
+      <c r="F6">
+        <v>32447.5</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1290,20 +1008,20 @@
       <c r="D7">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
+      <c r="E7">
+        <v>4329.93</v>
+      </c>
+      <c r="F7">
+        <v>73608.81</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1319,20 +1037,20 @@
       <c r="D8">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>198</v>
+      <c r="E8">
+        <v>2952.89</v>
+      </c>
+      <c r="F8">
+        <v>44293.35</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1348,20 +1066,20 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
-        <v>199</v>
+      <c r="E9">
+        <v>3063.17</v>
+      </c>
+      <c r="F9">
+        <v>15315.85</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1377,20 +1095,20 @@
       <c r="D10">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" t="s">
-        <v>200</v>
+      <c r="E10">
+        <v>726.75</v>
+      </c>
+      <c r="F10">
+        <v>29070</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1406,20 +1124,20 @@
       <c r="D11">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" t="s">
-        <v>201</v>
+      <c r="E11">
+        <v>178.7</v>
+      </c>
+      <c r="F11">
+        <v>6254.5</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1435,20 +1153,20 @@
       <c r="D12">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" t="s">
-        <v>202</v>
+      <c r="E12">
+        <v>299.33</v>
+      </c>
+      <c r="F12">
+        <v>10476.55</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1464,20 +1182,20 @@
       <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" t="s">
-        <v>203</v>
+      <c r="E13">
+        <v>126.46</v>
+      </c>
+      <c r="F13">
+        <v>2529.2</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1493,20 +1211,20 @@
       <c r="D14">
         <v>30</v>
       </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" t="s">
-        <v>204</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1522,20 +1240,20 @@
       <c r="D15">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" t="s">
-        <v>205</v>
+      <c r="E15">
+        <v>20.25</v>
+      </c>
+      <c r="F15">
+        <v>607.5</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1551,20 +1269,20 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="E16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" t="s">
-        <v>206</v>
+      <c r="E16">
+        <v>26.66</v>
+      </c>
+      <c r="F16">
+        <v>1066.4</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1580,20 +1298,20 @@
       <c r="D17">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" t="s">
-        <v>207</v>
+      <c r="E17">
+        <v>346.67</v>
+      </c>
+      <c r="F17">
+        <v>12133.45</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1609,20 +1327,20 @@
       <c r="D18">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" t="s">
-        <v>208</v>
+      <c r="E18">
+        <v>47.97</v>
+      </c>
+      <c r="F18">
+        <v>2878.2</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1638,20 +1356,20 @@
       <c r="D19">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" t="s">
-        <v>209</v>
+      <c r="E19">
+        <v>35.02</v>
+      </c>
+      <c r="F19">
+        <v>2451.4</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1667,20 +1385,20 @@
       <c r="D20">
         <v>50</v>
       </c>
-      <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" t="s">
-        <v>210</v>
+      <c r="E20">
+        <v>155.67</v>
+      </c>
+      <c r="F20">
+        <v>7783.499999999999</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1696,20 +1414,20 @@
       <c r="D21">
         <v>35</v>
       </c>
-      <c r="E21" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
-        <v>211</v>
+      <c r="E21">
+        <v>366.97</v>
+      </c>
+      <c r="F21">
+        <v>12843.95</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I21" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1725,20 +1443,20 @@
       <c r="D22">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" t="s">
-        <v>212</v>
+      <c r="E22">
+        <v>186.25</v>
+      </c>
+      <c r="F22">
+        <v>4656.25</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1754,20 +1472,20 @@
       <c r="D23">
         <v>35</v>
       </c>
-      <c r="E23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" t="s">
-        <v>213</v>
+      <c r="E23">
+        <v>268.28</v>
+      </c>
+      <c r="F23">
+        <v>9389.799999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1783,20 +1501,20 @@
       <c r="D24">
         <v>35</v>
       </c>
-      <c r="E24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" t="s">
-        <v>214</v>
+      <c r="E24">
+        <v>617.16</v>
+      </c>
+      <c r="F24">
+        <v>21600.6</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1812,20 +1530,20 @@
       <c r="D25">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" t="s">
-        <v>215</v>
+      <c r="E25">
+        <v>237.32</v>
+      </c>
+      <c r="F25">
+        <v>3559.8</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1841,20 +1559,20 @@
       <c r="D26">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" t="s">
-        <v>216</v>
+      <c r="E26">
+        <v>594.5</v>
+      </c>
+      <c r="F26">
+        <v>8917.5</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1870,20 +1588,20 @@
       <c r="D27">
         <v>100</v>
       </c>
-      <c r="E27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" t="s">
-        <v>217</v>
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="F27">
+        <v>6500</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1899,20 +1617,20 @@
       <c r="D28">
         <v>80</v>
       </c>
-      <c r="E28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" t="s">
-        <v>218</v>
+      <c r="E28">
+        <v>320</v>
+      </c>
+      <c r="F28">
+        <v>25600</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1928,20 +1646,20 @@
       <c r="D29">
         <v>100</v>
       </c>
-      <c r="E29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" t="s">
-        <v>219</v>
+      <c r="E29">
+        <v>60.67</v>
+      </c>
+      <c r="F29">
+        <v>6067</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1957,20 +1675,20 @@
       <c r="D30">
         <v>100</v>
       </c>
-      <c r="E30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" t="s">
-        <v>220</v>
+      <c r="E30">
+        <v>110.41</v>
+      </c>
+      <c r="F30">
+        <v>11041</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H30" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1986,20 +1704,20 @@
       <c r="D31">
         <v>100</v>
       </c>
-      <c r="E31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F31" t="s">
-        <v>221</v>
+      <c r="E31">
+        <v>122.38</v>
+      </c>
+      <c r="F31">
+        <v>12238</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H31" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2015,20 +1733,20 @@
       <c r="D32">
         <v>150</v>
       </c>
-      <c r="E32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" t="s">
-        <v>222</v>
+      <c r="E32">
+        <v>68.3</v>
+      </c>
+      <c r="F32">
+        <v>10245</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2044,20 +1762,20 @@
       <c r="D33">
         <v>30</v>
       </c>
-      <c r="E33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" t="s">
-        <v>223</v>
+      <c r="E33">
+        <v>61.19</v>
+      </c>
+      <c r="F33">
+        <v>1835.7</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H33" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I33" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2073,20 +1791,20 @@
       <c r="D34">
         <v>150</v>
       </c>
-      <c r="E34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" t="s">
-        <v>224</v>
+      <c r="E34">
+        <v>64.67</v>
+      </c>
+      <c r="F34">
+        <v>9700.5</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I34" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2102,20 +1820,20 @@
       <c r="D35">
         <v>200</v>
       </c>
-      <c r="E35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" t="s">
-        <v>225</v>
+      <c r="E35">
+        <v>68.47</v>
+      </c>
+      <c r="F35">
+        <v>13694</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I35" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2131,20 +1849,20 @@
       <c r="D36">
         <v>100</v>
       </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" t="s">
-        <v>226</v>
+      <c r="E36">
+        <v>58.67</v>
+      </c>
+      <c r="F36">
+        <v>5867</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H36" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I36" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2160,20 +1878,20 @@
       <c r="D37">
         <v>100</v>
       </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" t="s">
-        <v>227</v>
+      <c r="E37">
+        <v>119.45</v>
+      </c>
+      <c r="F37">
+        <v>11945</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2189,20 +1907,20 @@
       <c r="D38">
         <v>200</v>
       </c>
-      <c r="E38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" t="s">
-        <v>228</v>
+      <c r="E38">
+        <v>214.1</v>
+      </c>
+      <c r="F38">
+        <v>42820</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2218,20 +1936,20 @@
       <c r="D39">
         <v>150</v>
       </c>
-      <c r="E39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F39" t="s">
-        <v>229</v>
+      <c r="E39">
+        <v>55.8</v>
+      </c>
+      <c r="F39">
+        <v>8370</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H39" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I39" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2247,20 +1965,20 @@
       <c r="D40">
         <v>100</v>
       </c>
-      <c r="E40" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" t="s">
-        <v>230</v>
+      <c r="E40">
+        <v>57.44</v>
+      </c>
+      <c r="F40">
+        <v>5744</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2276,20 +1994,20 @@
       <c r="D41">
         <v>100</v>
       </c>
-      <c r="E41" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" t="s">
-        <v>231</v>
+      <c r="E41">
+        <v>56.55</v>
+      </c>
+      <c r="F41">
+        <v>5655</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H41" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I41" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2305,20 +2023,20 @@
       <c r="D42">
         <v>100</v>
       </c>
-      <c r="E42" t="s">
-        <v>185</v>
-      </c>
-      <c r="F42" t="s">
-        <v>232</v>
+      <c r="E42">
+        <v>56.41</v>
+      </c>
+      <c r="F42">
+        <v>5641</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I42" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2334,20 +2052,20 @@
       <c r="D43">
         <v>100</v>
       </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" t="s">
-        <v>233</v>
+      <c r="E43">
+        <v>91.95</v>
+      </c>
+      <c r="F43">
+        <v>9195</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H43" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I43" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2363,20 +2081,20 @@
       <c r="D44">
         <v>100</v>
       </c>
-      <c r="E44" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" t="s">
-        <v>234</v>
+      <c r="E44">
+        <v>108.2</v>
+      </c>
+      <c r="F44">
+        <v>10820</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H44" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2392,20 +2110,20 @@
       <c r="D45">
         <v>50</v>
       </c>
-      <c r="E45" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" t="s">
-        <v>235</v>
+      <c r="E45">
+        <v>197.33</v>
+      </c>
+      <c r="F45">
+        <v>9866.5</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H45" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I45" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2421,20 +2139,20 @@
       <c r="D46">
         <v>50</v>
       </c>
-      <c r="E46" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" t="s">
-        <v>236</v>
+      <c r="E46">
+        <v>213.17</v>
+      </c>
+      <c r="F46">
+        <v>10658.5</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H46" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2450,20 +2168,20 @@
       <c r="D47">
         <v>40</v>
       </c>
-      <c r="E47" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" t="s">
-        <v>237</v>
+      <c r="E47">
+        <v>102.31</v>
+      </c>
+      <c r="F47">
+        <v>4092.4</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H47" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2479,20 +2197,20 @@
       <c r="D48">
         <v>25</v>
       </c>
-      <c r="E48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" t="s">
-        <v>238</v>
+      <c r="E48">
+        <v>103.66</v>
+      </c>
+      <c r="F48">
+        <v>2591.5</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="H48" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="I48" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
